--- a/QMMM/Tersoff_potential/converter.xlsx
+++ b/QMMM/Tersoff_potential/converter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\CP2k-v.9.1-examples\QMMM\Tersoff_potential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE61F80-E1AA-47F7-AC0F-6DD1BDCF7E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA013A-7699-46AA-A625-30876B602186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="615" windowWidth="19095" windowHeight="14280" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="1650" yWindow="105" windowWidth="23535" windowHeight="13935" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="50">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CA3EAD-480F-414E-B40A-9BA15C4331F8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1232,14 +1232,14 @@
         <v>20</v>
       </c>
       <c r="N14" s="1">
-        <f>H6</f>
+        <f>B6</f>
         <v>1</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="1">
-        <f>N14</f>
+        <f>H6</f>
         <v>1</v>
       </c>
     </row>
@@ -2442,24 +2442,18 @@
         <v>20</v>
       </c>
       <c r="N54" s="1">
-        <f>H47</f>
+        <f>B47</f>
         <v>1</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q54" s="1">
-        <f>N54</f>
+        <f>H47</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
@@ -2496,12 +2490,6 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1.180855</v>
-      </c>
       <c r="G56" s="3" t="s">
         <v>21</v>
       </c>
